--- a/trunk/Plant.xlsx
+++ b/trunk/Plant.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\HK7\plants-vs-zombies-gameonmobile-uit-term7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\Windows Phone\XNA\PlantsVsZombies\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Task</t>
   </si>
@@ -60,6 +60,24 @@
   </si>
   <si>
     <t>Check thắng thua</t>
+  </si>
+  <si>
+    <t>Suns system</t>
+  </si>
+  <si>
+    <t>Người làm</t>
+  </si>
+  <si>
+    <t>Vũ</t>
+  </si>
+  <si>
+    <t>Giao diện game grow -- wating</t>
+  </si>
+  <si>
+    <t>Giao diện sun system kiểm tra button - wating</t>
+  </si>
+  <si>
+    <t>Test list graphics system</t>
   </si>
 </sst>
 </file>
@@ -103,11 +121,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,20 +407,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D11"/>
+  <dimension ref="A3:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -412,71 +432,100 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
